--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ptprc-Mrc1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ptprc-Mrc1.xlsx
@@ -537,46 +537,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.1546356666666667</v>
+        <v>0.467036</v>
       </c>
       <c r="H2">
-        <v>0.463907</v>
+        <v>1.401108</v>
       </c>
       <c r="I2">
-        <v>0.0006541814359458435</v>
+        <v>0.001972893265924874</v>
       </c>
       <c r="J2">
-        <v>0.0006541814359458435</v>
+        <v>0.001972893265924874</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.316305</v>
+        <v>0.19897</v>
       </c>
       <c r="N2">
-        <v>0.948915</v>
+        <v>0.5969100000000001</v>
       </c>
       <c r="O2">
-        <v>0.002355313614469984</v>
+        <v>0.001481973067923264</v>
       </c>
       <c r="P2">
-        <v>0.002355313614469984</v>
+        <v>0.001481973067923264</v>
       </c>
       <c r="Q2">
-        <v>0.048912034545</v>
+        <v>0.09292615292</v>
       </c>
       <c r="R2">
-        <v>0.440208310905</v>
+        <v>0.8363353762800001</v>
       </c>
       <c r="S2">
-        <v>1.540802442416769E-06</v>
+        <v>2.923774685987834E-06</v>
       </c>
       <c r="T2">
-        <v>1.540802442416769E-06</v>
+        <v>2.923774685987834E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.1546356666666667</v>
+        <v>0.467036</v>
       </c>
       <c r="H3">
-        <v>0.463907</v>
+        <v>1.401108</v>
       </c>
       <c r="I3">
-        <v>0.0006541814359458435</v>
+        <v>0.001972893265924874</v>
       </c>
       <c r="J3">
-        <v>0.0006541814359458435</v>
+        <v>0.001972893265924874</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>0.64508</v>
       </c>
       <c r="O3">
-        <v>0.001601161016974436</v>
+        <v>0.001601566712998508</v>
       </c>
       <c r="P3">
-        <v>0.001601161016974436</v>
+        <v>0.001601566712998507</v>
       </c>
       <c r="Q3">
-        <v>0.03325079195111112</v>
+        <v>0.1004251942933333</v>
       </c>
       <c r="R3">
-        <v>0.29925712756</v>
+        <v>0.90382674864</v>
       </c>
       <c r="S3">
-        <v>1.047449813264844E-06</v>
+        <v>3.159720183004192E-06</v>
       </c>
       <c r="T3">
-        <v>1.047449813264844E-06</v>
+        <v>3.159720183004192E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.1546356666666667</v>
+        <v>0.467036</v>
       </c>
       <c r="H4">
-        <v>0.463907</v>
+        <v>1.401108</v>
       </c>
       <c r="I4">
-        <v>0.0006541814359458435</v>
+        <v>0.001972893265924874</v>
       </c>
       <c r="J4">
-        <v>0.0006541814359458435</v>
+        <v>0.001972893265924874</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.223404333333333</v>
+        <v>0.245373</v>
       </c>
       <c r="N4">
-        <v>9.670213</v>
+        <v>0.736119</v>
       </c>
       <c r="O4">
-        <v>0.02400255484814196</v>
+        <v>0.001827592991885888</v>
       </c>
       <c r="P4">
-        <v>0.02400255484814196</v>
+        <v>0.001827592991885888</v>
       </c>
       <c r="Q4">
-        <v>0.4984532780212222</v>
+        <v>0.114598024428</v>
       </c>
       <c r="R4">
-        <v>4.486079502191</v>
+        <v>1.031382219852</v>
       </c>
       <c r="S4">
-        <v>1.570202579692638E-05</v>
+        <v>3.605645906543161E-06</v>
       </c>
       <c r="T4">
-        <v>1.570202579692638E-05</v>
+        <v>3.605645906543161E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.1546356666666667</v>
+        <v>0.467036</v>
       </c>
       <c r="H5">
-        <v>0.463907</v>
+        <v>1.401108</v>
       </c>
       <c r="I5">
-        <v>0.0006541814359458435</v>
+        <v>0.001972893265924874</v>
       </c>
       <c r="J5">
-        <v>0.0006541814359458435</v>
+        <v>0.001972893265924874</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>130.539482</v>
+        <v>133.60083</v>
       </c>
       <c r="N5">
-        <v>391.618446</v>
+        <v>400.80249</v>
       </c>
       <c r="O5">
-        <v>0.9720409705204136</v>
+        <v>0.9950888672271924</v>
       </c>
       <c r="P5">
-        <v>0.9720409705204136</v>
+        <v>0.9950888672271923</v>
       </c>
       <c r="Q5">
-        <v>20.18605982539133</v>
+        <v>62.39639723988</v>
       </c>
       <c r="R5">
-        <v>181.674538428522</v>
+        <v>561.56757515892</v>
       </c>
       <c r="S5">
-        <v>0.0006358911578932356</v>
+        <v>0.001963204125149339</v>
       </c>
       <c r="T5">
-        <v>0.0006358911578932356</v>
+        <v>0.001963204125149339</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>0.976031</v>
       </c>
       <c r="I6">
-        <v>0.001376356384162467</v>
+        <v>0.001374344438283074</v>
       </c>
       <c r="J6">
-        <v>0.001376356384162467</v>
+        <v>0.001374344438283074</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.316305</v>
+        <v>0.19897</v>
       </c>
       <c r="N6">
-        <v>0.948915</v>
+        <v>0.5969100000000001</v>
       </c>
       <c r="O6">
-        <v>0.002355313614469984</v>
+        <v>0.001481973067923264</v>
       </c>
       <c r="P6">
-        <v>0.002355313614469984</v>
+        <v>0.001481973067923264</v>
       </c>
       <c r="Q6">
-        <v>0.102907828485</v>
+        <v>0.06473362935666667</v>
       </c>
       <c r="R6">
-        <v>0.9261704563649999</v>
+        <v>0.5826026642100001</v>
       </c>
       <c r="S6">
-        <v>3.241750929980538E-06</v>
+        <v>2.036741443585642E-06</v>
       </c>
       <c r="T6">
-        <v>3.241750929980538E-06</v>
+        <v>2.036741443585642E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.976031</v>
       </c>
       <c r="I7">
-        <v>0.001376356384162467</v>
+        <v>0.001374344438283074</v>
       </c>
       <c r="J7">
-        <v>0.001376356384162467</v>
+        <v>0.001374344438283074</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>0.64508</v>
       </c>
       <c r="O7">
-        <v>0.001601161016974436</v>
+        <v>0.001601566712998508</v>
       </c>
       <c r="P7">
-        <v>0.001601161016974436</v>
+        <v>0.001601566712998507</v>
       </c>
       <c r="Q7">
         <v>0.06995756416444444</v>
@@ -883,10 +883,10 @@
         <v>0.62961807748</v>
       </c>
       <c r="S7">
-        <v>2.203768187784834E-06</v>
+        <v>2.201104304548803E-06</v>
       </c>
       <c r="T7">
-        <v>2.203768187784834E-06</v>
+        <v>2.201104304548803E-06</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>0.976031</v>
       </c>
       <c r="I8">
-        <v>0.001376356384162467</v>
+        <v>0.001374344438283074</v>
       </c>
       <c r="J8">
-        <v>0.001376356384162467</v>
+        <v>0.001374344438283074</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.223404333333333</v>
+        <v>0.245373</v>
       </c>
       <c r="N8">
-        <v>9.670213</v>
+        <v>0.736119</v>
       </c>
       <c r="O8">
-        <v>0.02400255484814196</v>
+        <v>0.001827592991885888</v>
       </c>
       <c r="P8">
-        <v>0.02400255484814196</v>
+        <v>0.001827592991885888</v>
       </c>
       <c r="Q8">
-        <v>1.048714184955889</v>
+        <v>0.07983055152099999</v>
       </c>
       <c r="R8">
-        <v>9.438427664603001</v>
+        <v>0.718474963689</v>
       </c>
       <c r="S8">
-        <v>3.303606960144996E-05</v>
+        <v>2.511742263843492E-06</v>
       </c>
       <c r="T8">
-        <v>3.303606960144996E-05</v>
+        <v>2.511742263843492E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>0.976031</v>
       </c>
       <c r="I9">
-        <v>0.001376356384162467</v>
+        <v>0.001374344438283074</v>
       </c>
       <c r="J9">
-        <v>0.001376356384162467</v>
+        <v>0.001374344438283074</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>130.539482</v>
+        <v>133.60083</v>
       </c>
       <c r="N9">
-        <v>391.618446</v>
+        <v>400.80249</v>
       </c>
       <c r="O9">
-        <v>0.9720409705204136</v>
+        <v>0.9950888672271924</v>
       </c>
       <c r="P9">
-        <v>0.9720409705204136</v>
+        <v>0.9950888672271923</v>
       </c>
       <c r="Q9">
-        <v>42.47019371864733</v>
+        <v>43.46618390191</v>
       </c>
       <c r="R9">
-        <v>382.231743467826</v>
+        <v>391.19565511719</v>
       </c>
       <c r="S9">
-        <v>0.001337874795443252</v>
+        <v>0.001367594850271096</v>
       </c>
       <c r="T9">
-        <v>0.001337874795443252</v>
+        <v>0.001367594850271096</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>3.999992666666667</v>
+        <v>0.02089333333333333</v>
       </c>
       <c r="H10">
-        <v>11.999978</v>
+        <v>0.06268</v>
       </c>
       <c r="I10">
-        <v>0.01692184605828007</v>
+        <v>8.825939892440207E-05</v>
       </c>
       <c r="J10">
-        <v>0.01692184605828007</v>
+        <v>8.825939892440207E-05</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.316305</v>
+        <v>0.19897</v>
       </c>
       <c r="N10">
-        <v>0.948915</v>
+        <v>0.5969100000000001</v>
       </c>
       <c r="O10">
-        <v>0.002355313614469984</v>
+        <v>0.001481973067923264</v>
       </c>
       <c r="P10">
-        <v>0.002355313614469984</v>
+        <v>0.001481973067923264</v>
       </c>
       <c r="Q10">
-        <v>1.26521768043</v>
+        <v>0.004157146533333334</v>
       </c>
       <c r="R10">
-        <v>11.38695912387</v>
+        <v>0.03741431880000001</v>
       </c>
       <c r="S10">
-        <v>3.985625440303228E-05</v>
+        <v>1.307980521970594E-07</v>
       </c>
       <c r="T10">
-        <v>3.985625440303228E-05</v>
+        <v>1.307980521970594E-07</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>3.999992666666667</v>
+        <v>0.02089333333333333</v>
       </c>
       <c r="H11">
-        <v>11.999978</v>
+        <v>0.06268</v>
       </c>
       <c r="I11">
-        <v>0.01692184605828007</v>
+        <v>8.825939892440207E-05</v>
       </c>
       <c r="J11">
-        <v>0.01692184605828007</v>
+        <v>8.825939892440207E-05</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>0.64508</v>
       </c>
       <c r="O11">
-        <v>0.001601161016974436</v>
+        <v>0.001601566712998508</v>
       </c>
       <c r="P11">
-        <v>0.001601161016974436</v>
+        <v>0.001601566712998507</v>
       </c>
       <c r="Q11">
-        <v>0.8601050898044446</v>
+        <v>0.004492623822222222</v>
       </c>
       <c r="R11">
-        <v>7.74094580824</v>
+        <v>0.0404336144</v>
       </c>
       <c r="S11">
-        <v>2.709460024376057E-05</v>
+        <v>1.413533154265786E-07</v>
       </c>
       <c r="T11">
-        <v>2.709460024376057E-05</v>
+        <v>1.413533154265786E-07</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>3.999992666666667</v>
+        <v>0.02089333333333333</v>
       </c>
       <c r="H12">
-        <v>11.999978</v>
+        <v>0.06268</v>
       </c>
       <c r="I12">
-        <v>0.01692184605828007</v>
+        <v>8.825939892440207E-05</v>
       </c>
       <c r="J12">
-        <v>0.01692184605828007</v>
+        <v>8.825939892440207E-05</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.223404333333333</v>
+        <v>0.245373</v>
       </c>
       <c r="N12">
-        <v>9.670213</v>
+        <v>0.736119</v>
       </c>
       <c r="O12">
-        <v>0.02400255484814196</v>
+        <v>0.001827592991885888</v>
       </c>
       <c r="P12">
-        <v>0.02400255484814196</v>
+        <v>0.001827592991885888</v>
       </c>
       <c r="Q12">
-        <v>12.89359369503489</v>
+        <v>0.00512665988</v>
       </c>
       <c r="R12">
-        <v>116.042343255314</v>
+        <v>0.04613993892</v>
       </c>
       <c r="S12">
-        <v>0.0004061675381456822</v>
+        <v>1.613022589422981E-07</v>
       </c>
       <c r="T12">
-        <v>0.0004061675381456822</v>
+        <v>1.613022589422981E-07</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>3.999992666666667</v>
+        <v>0.02089333333333333</v>
       </c>
       <c r="H13">
-        <v>11.999978</v>
+        <v>0.06268</v>
       </c>
       <c r="I13">
-        <v>0.01692184605828007</v>
+        <v>8.825939892440207E-05</v>
       </c>
       <c r="J13">
-        <v>0.01692184605828007</v>
+        <v>8.825939892440207E-05</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>130.539482</v>
+        <v>133.60083</v>
       </c>
       <c r="N13">
-        <v>391.618446</v>
+        <v>400.80249</v>
       </c>
       <c r="O13">
-        <v>0.9720409705204136</v>
+        <v>0.9950888672271924</v>
       </c>
       <c r="P13">
-        <v>0.9720409705204136</v>
+        <v>0.9950888672271923</v>
       </c>
       <c r="Q13">
-        <v>522.1569707104653</v>
+        <v>2.7913666748</v>
       </c>
       <c r="R13">
-        <v>4699.412736394188</v>
+        <v>25.1223000732</v>
       </c>
       <c r="S13">
-        <v>0.0164487276654876</v>
+        <v>8.782594529783614E-05</v>
       </c>
       <c r="T13">
-        <v>0.0164487276654876</v>
+        <v>8.782594529783612E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>231.9004236666667</v>
+        <v>235.9131673333333</v>
       </c>
       <c r="H14">
-        <v>695.701271</v>
+        <v>707.739502</v>
       </c>
       <c r="I14">
-        <v>0.9810476161216116</v>
+        <v>0.9965645028968676</v>
       </c>
       <c r="J14">
-        <v>0.9810476161216116</v>
+        <v>0.9965645028968676</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.316305</v>
+        <v>0.19897</v>
       </c>
       <c r="N14">
-        <v>0.948915</v>
+        <v>0.5969100000000001</v>
       </c>
       <c r="O14">
-        <v>0.002355313614469984</v>
+        <v>0.001481973067923264</v>
       </c>
       <c r="P14">
-        <v>0.002355313614469984</v>
+        <v>0.001481973067923264</v>
       </c>
       <c r="Q14">
-        <v>73.35126350788501</v>
+        <v>46.93964290431334</v>
       </c>
       <c r="R14">
-        <v>660.161371570965</v>
+        <v>422.4567861388201</v>
       </c>
       <c r="S14">
-        <v>0.002310674806694554</v>
+        <v>0.001476881753741493</v>
       </c>
       <c r="T14">
-        <v>0.002310674806694554</v>
+        <v>0.001476881753741493</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>231.9004236666667</v>
+        <v>235.9131673333333</v>
       </c>
       <c r="H15">
-        <v>695.701271</v>
+        <v>707.739502</v>
       </c>
       <c r="I15">
-        <v>0.9810476161216116</v>
+        <v>0.9965645028968676</v>
       </c>
       <c r="J15">
-        <v>0.9810476161216116</v>
+        <v>0.9965645028968676</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>0.64508</v>
       </c>
       <c r="O15">
-        <v>0.001601161016974436</v>
+        <v>0.001601566712998508</v>
       </c>
       <c r="P15">
-        <v>0.001601161016974436</v>
+        <v>0.001601566712998507</v>
       </c>
       <c r="Q15">
-        <v>49.86477509963112</v>
+        <v>50.72762199446223</v>
       </c>
       <c r="R15">
-        <v>448.78297589668</v>
+        <v>456.54859795016</v>
       </c>
       <c r="S15">
-        <v>0.001570815198729626</v>
+        <v>0.001596064535195528</v>
       </c>
       <c r="T15">
-        <v>0.001570815198729626</v>
+        <v>0.001596064535195528</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>231.9004236666667</v>
+        <v>235.9131673333333</v>
       </c>
       <c r="H16">
-        <v>695.701271</v>
+        <v>707.739502</v>
       </c>
       <c r="I16">
-        <v>0.9810476161216116</v>
+        <v>0.9965645028968676</v>
       </c>
       <c r="J16">
-        <v>0.9810476161216116</v>
+        <v>0.9965645028968676</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.223404333333333</v>
+        <v>0.245373</v>
       </c>
       <c r="N16">
-        <v>9.670213</v>
+        <v>0.736119</v>
       </c>
       <c r="O16">
-        <v>0.02400255484814196</v>
+        <v>0.001827592991885888</v>
       </c>
       <c r="P16">
-        <v>0.02400255484814196</v>
+        <v>0.001827592991885888</v>
       </c>
       <c r="Q16">
-        <v>747.5088305489693</v>
+        <v>57.886721608082</v>
       </c>
       <c r="R16">
-        <v>6727.579474940723</v>
+        <v>520.980494472738</v>
       </c>
       <c r="S16">
-        <v>0.0235476492145979</v>
+        <v>0.001821314301456558</v>
       </c>
       <c r="T16">
-        <v>0.0235476492145979</v>
+        <v>0.001821314301456558</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>231.9004236666667</v>
+        <v>235.9131673333333</v>
       </c>
       <c r="H17">
-        <v>695.701271</v>
+        <v>707.739502</v>
       </c>
       <c r="I17">
-        <v>0.9810476161216116</v>
+        <v>0.9965645028968676</v>
       </c>
       <c r="J17">
-        <v>0.9810476161216116</v>
+        <v>0.9965645028968676</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>130.539482</v>
+        <v>133.60083</v>
       </c>
       <c r="N17">
-        <v>391.618446</v>
+        <v>400.80249</v>
       </c>
       <c r="O17">
-        <v>0.9720409705204136</v>
+        <v>0.9950888672271924</v>
       </c>
       <c r="P17">
-        <v>0.9720409705204136</v>
+        <v>0.9950888672271923</v>
       </c>
       <c r="Q17">
-        <v>30272.16118102721</v>
+        <v>31518.19496366222</v>
       </c>
       <c r="R17">
-        <v>272449.4506292448</v>
+        <v>283663.75467296</v>
       </c>
       <c r="S17">
-        <v>0.9536184769015895</v>
+        <v>0.991670242306474</v>
       </c>
       <c r="T17">
-        <v>0.9536184769015895</v>
+        <v>0.9916702423064739</v>
       </c>
     </row>
   </sheetData>
